--- a/Documents/BOM/LCSC/BOM_Interface.xlsx
+++ b/Documents/BOM/LCSC/BOM_Interface.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlis.ulmanis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlis.ulmanis\Desktop\Workfiles\Documents\BOM\LCSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="BOM_Parking_lot_interface_devic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="148">
   <si>
     <t>ID</t>
   </si>
@@ -372,24 +372,12 @@
     <t>C11,C19</t>
   </si>
   <si>
-    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Walsin-Tech-Corp-0603N220J500_C107451.html</t>
-  </si>
-  <si>
-    <t>C107451</t>
-  </si>
-  <si>
     <t>C107037</t>
   </si>
   <si>
     <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_15pF-150-5-50V_C107037.html</t>
   </si>
   <si>
-    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_150pF-151-10-50V_C1594.html</t>
-  </si>
-  <si>
-    <t>C1594</t>
-  </si>
-  <si>
     <t>C237171</t>
   </si>
   <si>
@@ -451,6 +439,30 @@
   </si>
   <si>
     <t>68uH</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/USB-Connectors_Jing-Extension-of-the-Electronic-Co-Jing-Extension-of-the-Electronic-Co-USB-BType-interface-female-1800-Not-high-temperature_C26234.html</t>
+  </si>
+  <si>
+    <t>C26234</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Others_Guangdong-Fenghua-Advanced-Tech-RS-03K121JT_C286567.html</t>
+  </si>
+  <si>
+    <t>C286567</t>
+  </si>
+  <si>
+    <t>C376775</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/New-Arrivals_CCTC-TCC0603COG220J500CT_C376775.html</t>
+  </si>
+  <si>
+    <t>C376812</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/New-Arrivals_CCTC-TCC0603X7R151M500CT_C376812.html</t>
   </si>
 </sst>
 </file>
@@ -1397,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,7 +1532,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -1547,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
@@ -1589,10 +1601,10 @@
         <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1616,10 +1628,10 @@
         <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1643,10 +1655,10 @@
         <v>11</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1670,10 +1682,10 @@
         <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1697,10 +1709,10 @@
         <v>11</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1775,7 +1787,12 @@
       <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1798,10 +1815,10 @@
         <v>11</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1825,10 +1842,10 @@
         <v>11</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1956,8 +1973,15 @@
       <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -1980,10 +2004,10 @@
         <v>11</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2007,10 +2031,10 @@
         <v>11</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2034,10 +2058,10 @@
         <v>11</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2127,7 +2151,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>51</v>
@@ -2214,7 +2238,7 @@
         <v>61</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -2262,7 +2286,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>66</v>
@@ -2277,10 +2301,10 @@
         <v>11</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2303,22 +2327,24 @@
     <hyperlink ref="H12" r:id="rId16"/>
     <hyperlink ref="H17" r:id="rId17"/>
     <hyperlink ref="H18" r:id="rId18"/>
-    <hyperlink ref="H7" r:id="rId19"/>
-    <hyperlink ref="H8" r:id="rId20"/>
-    <hyperlink ref="H9" r:id="rId21"/>
-    <hyperlink ref="H10" r:id="rId22"/>
-    <hyperlink ref="H11" r:id="rId23"/>
-    <hyperlink ref="H24" r:id="rId24"/>
-    <hyperlink ref="H15" r:id="rId25"/>
-    <hyperlink ref="H16" r:id="rId26"/>
-    <hyperlink ref="H22" r:id="rId27"/>
-    <hyperlink ref="H23" r:id="rId28"/>
-    <hyperlink ref="H33" r:id="rId29"/>
+    <hyperlink ref="H8" r:id="rId19"/>
+    <hyperlink ref="H10" r:id="rId20"/>
+    <hyperlink ref="H11" r:id="rId21"/>
+    <hyperlink ref="H24" r:id="rId22"/>
+    <hyperlink ref="H15" r:id="rId23"/>
+    <hyperlink ref="H16" r:id="rId24"/>
+    <hyperlink ref="H22" r:id="rId25"/>
+    <hyperlink ref="H23" r:id="rId26"/>
+    <hyperlink ref="H33" r:id="rId27"/>
+    <hyperlink ref="H14" r:id="rId28"/>
+    <hyperlink ref="H21" r:id="rId29"/>
+    <hyperlink ref="H7" r:id="rId30"/>
+    <hyperlink ref="H9" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
   <tableParts count="1">
-    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documents/BOM/LCSC/BOM_Interface.xlsx
+++ b/Documents/BOM/LCSC/BOM_Interface.xlsx
@@ -279,15 +279,6 @@
     <t>C220000</t>
   </si>
   <si>
-    <t>C71121</t>
-  </si>
-  <si>
-    <t>LD1117AG-33-AA3-A-R</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Low-Dropout-Regulators-LDO_LD1117AG-33-AA3-A-R_C71121.html</t>
-  </si>
-  <si>
     <t>C259045</t>
   </si>
   <si>
@@ -463,6 +454,15 @@
   </si>
   <si>
     <t>https://lcsc.com/product-detail/New-Arrivals_CCTC-TCC0603X7R151M500CT_C376812.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Low-Dropout-Regulators-LDO_HTC_LM39100S-3-3_LM39100S-3-3_C126055.html</t>
+  </si>
+  <si>
+    <t>C126055</t>
+  </si>
+  <si>
+    <t>LM39100S-3.3</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1410,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:H9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,7 +1493,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>72</v>
@@ -1520,10 +1520,10 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1532,13 +1532,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1547,7 +1547,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>76</v>
@@ -1559,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
@@ -1601,10 +1601,10 @@
         <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1628,10 +1628,10 @@
         <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1655,10 +1655,10 @@
         <v>11</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1670,7 +1670,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
@@ -1682,10 +1682,10 @@
         <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1709,10 +1709,10 @@
         <v>11</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1721,13 +1721,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1736,10 +1736,10 @@
         <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1748,13 +1748,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
@@ -1763,10 +1763,10 @@
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
@@ -1788,10 +1788,10 @@
         <v>11</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1800,10 +1800,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
@@ -1815,10 +1815,10 @@
         <v>11</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1830,7 +1830,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
@@ -1842,10 +1842,10 @@
         <v>11</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1854,10 +1854,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>31</v>
@@ -1869,10 +1869,10 @@
         <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1881,10 +1881,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>31</v>
@@ -1896,10 +1896,10 @@
         <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1923,7 +1923,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>75</v>
@@ -1950,7 +1950,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>74</v>
@@ -1977,10 +1977,10 @@
         <v>11</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2004,10 +2004,10 @@
         <v>11</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2019,7 +2019,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>20</v>
@@ -2031,10 +2031,10 @@
         <v>11</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2058,10 +2058,10 @@
         <v>11</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2070,7 +2070,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>42</v>
@@ -2085,10 +2085,10 @@
         <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2151,7 +2151,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>51</v>
@@ -2238,7 +2238,7 @@
         <v>61</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -2286,7 +2286,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>66</v>
@@ -2301,10 +2301,10 @@
         <v>11</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
